--- a/data/pca/factorExposure/factorExposure_2017-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02284976941408881</v>
+        <v>-0.01040277398266059</v>
       </c>
       <c r="C2">
-        <v>-0.007629081277644232</v>
+        <v>0.04469531391282986</v>
       </c>
       <c r="D2">
-        <v>0.03717147421499607</v>
+        <v>0.02966828906235219</v>
       </c>
       <c r="E2">
-        <v>-0.008962596744689444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0331180057249003</v>
+      </c>
+      <c r="F2">
+        <v>-0.008444624505905616</v>
+      </c>
+      <c r="G2">
+        <v>0.0967146073536914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01769486740478125</v>
+        <v>-0.04329958144054233</v>
       </c>
       <c r="C3">
-        <v>0.02674722112790027</v>
+        <v>0.1021765363313757</v>
       </c>
       <c r="D3">
-        <v>0.1000625053243357</v>
+        <v>0.0176527803091842</v>
       </c>
       <c r="E3">
-        <v>-0.05195748899099615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09881967549967176</v>
+      </c>
+      <c r="F3">
+        <v>-0.005659216761350041</v>
+      </c>
+      <c r="G3">
+        <v>0.1891390109997377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02551113609964056</v>
+        <v>-0.05578904180133488</v>
       </c>
       <c r="C4">
-        <v>0.007040485018526278</v>
+        <v>0.06835894169926744</v>
       </c>
       <c r="D4">
-        <v>0.08918364755721121</v>
+        <v>0.02437082029984411</v>
       </c>
       <c r="E4">
-        <v>0.008745728420497041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02691847394930617</v>
+      </c>
+      <c r="F4">
+        <v>-0.01041632818679835</v>
+      </c>
+      <c r="G4">
+        <v>0.09662595865069071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0136650331036478</v>
+        <v>-0.03731182470802757</v>
       </c>
       <c r="C6">
-        <v>-0.00897553941633164</v>
+        <v>0.05322881135167194</v>
       </c>
       <c r="D6">
-        <v>0.08285187932458497</v>
+        <v>0.01677741384992825</v>
       </c>
       <c r="E6">
-        <v>0.00814319862795739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03119705662041555</v>
+      </c>
+      <c r="F6">
+        <v>-0.01024221669064126</v>
+      </c>
+      <c r="G6">
+        <v>0.07919122668869512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01190528415435632</v>
+        <v>-0.02089251840443299</v>
       </c>
       <c r="C7">
-        <v>0.003521415379006475</v>
+        <v>0.04164790459703745</v>
       </c>
       <c r="D7">
-        <v>0.04392849814585027</v>
+        <v>0.01329062074367462</v>
       </c>
       <c r="E7">
-        <v>0.0439196275545326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004853285351302323</v>
+      </c>
+      <c r="F7">
+        <v>0.006206943290101266</v>
+      </c>
+      <c r="G7">
+        <v>0.1255455674940323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0008765032316427274</v>
+        <v>-0.004031890385459186</v>
       </c>
       <c r="C8">
-        <v>0.0003396426247701827</v>
+        <v>0.02539176794879473</v>
       </c>
       <c r="D8">
-        <v>0.007634826138035552</v>
+        <v>0.003775193632314862</v>
       </c>
       <c r="E8">
-        <v>0.003463356934538392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02283053499500692</v>
+      </c>
+      <c r="F8">
+        <v>-0.005867563647951965</v>
+      </c>
+      <c r="G8">
+        <v>0.06622307291323172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01753524359673661</v>
+        <v>-0.03368369403652198</v>
       </c>
       <c r="C9">
-        <v>0.009615416818114267</v>
+        <v>0.0498796209256563</v>
       </c>
       <c r="D9">
-        <v>0.06475014947383133</v>
+        <v>0.01654090337807376</v>
       </c>
       <c r="E9">
-        <v>-0.000767081020161958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01693953989035201</v>
+      </c>
+      <c r="F9">
+        <v>-0.007418367584386109</v>
+      </c>
+      <c r="G9">
+        <v>0.09665334969683004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03892482570988787</v>
+        <v>-0.09856932000076361</v>
       </c>
       <c r="C10">
-        <v>0.1769266290213331</v>
+        <v>-0.18095612667535</v>
       </c>
       <c r="D10">
-        <v>-0.09622766899490885</v>
+        <v>-0.0148890490767268</v>
       </c>
       <c r="E10">
-        <v>-0.02979451544909224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02084804233015757</v>
+      </c>
+      <c r="F10">
+        <v>0.02367718420901288</v>
+      </c>
+      <c r="G10">
+        <v>0.06160346632506749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006389405523460569</v>
+        <v>-0.03508879202992448</v>
       </c>
       <c r="C11">
-        <v>-0.0009994851634555879</v>
+        <v>0.05476622527569193</v>
       </c>
       <c r="D11">
-        <v>0.05758065006399479</v>
+        <v>0.00212960616796729</v>
       </c>
       <c r="E11">
-        <v>-0.003487218089464821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009612020910819051</v>
+      </c>
+      <c r="F11">
+        <v>-0.02003097020059909</v>
+      </c>
+      <c r="G11">
+        <v>0.08638910308088177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005828545714143135</v>
+        <v>-0.03674971214378685</v>
       </c>
       <c r="C12">
-        <v>0.0008809754535038616</v>
+        <v>0.04937422592243575</v>
       </c>
       <c r="D12">
-        <v>0.05182760624108815</v>
+        <v>0.00615631154866688</v>
       </c>
       <c r="E12">
-        <v>0.01208794024076472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002498260662992813</v>
+      </c>
+      <c r="F12">
+        <v>-0.001174362951235421</v>
+      </c>
+      <c r="G12">
+        <v>0.08132494924019673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02528934557749658</v>
+        <v>-0.01679423475428219</v>
       </c>
       <c r="C13">
-        <v>0.01326176760116312</v>
+        <v>0.04168182658581537</v>
       </c>
       <c r="D13">
-        <v>0.03730984610803727</v>
+        <v>0.02609593149564914</v>
       </c>
       <c r="E13">
-        <v>-0.01997054829819518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03002032046111066</v>
+      </c>
+      <c r="F13">
+        <v>-0.005286787629361156</v>
+      </c>
+      <c r="G13">
+        <v>0.1241471767677271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009877186548282707</v>
+        <v>-0.009144451577007544</v>
       </c>
       <c r="C14">
-        <v>0.01144815603994936</v>
+        <v>0.02968334618381506</v>
       </c>
       <c r="D14">
-        <v>0.02090480290596656</v>
+        <v>0.009778343139262726</v>
       </c>
       <c r="E14">
-        <v>-0.001713734543654469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002402221160595893</v>
+      </c>
+      <c r="F14">
+        <v>0.0103129382781534</v>
+      </c>
+      <c r="G14">
+        <v>0.1001702168323461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002037565305154824</v>
+        <v>-0.03353946964296802</v>
       </c>
       <c r="C16">
-        <v>0.005417351223689161</v>
+        <v>0.04824582509059051</v>
       </c>
       <c r="D16">
-        <v>0.04895544307251787</v>
+        <v>0.001813791485662108</v>
       </c>
       <c r="E16">
-        <v>0.007522981681616503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00904574515195559</v>
+      </c>
+      <c r="F16">
+        <v>-0.002580945843889162</v>
+      </c>
+      <c r="G16">
+        <v>0.08968679422562871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01532152655274511</v>
+        <v>-0.02217126787788752</v>
       </c>
       <c r="C19">
-        <v>0.009469273476690424</v>
+        <v>0.05480845669723043</v>
       </c>
       <c r="D19">
-        <v>0.05017898907150661</v>
+        <v>0.01875716581549207</v>
       </c>
       <c r="E19">
-        <v>-0.001069010198585696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06912325979675972</v>
+      </c>
+      <c r="F19">
+        <v>-0.02045393964201762</v>
+      </c>
+      <c r="G19">
+        <v>0.1346784499307703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01127518352910445</v>
+        <v>-0.01559535617675242</v>
       </c>
       <c r="C20">
-        <v>0.002317280161309382</v>
+        <v>0.04049868373878564</v>
       </c>
       <c r="D20">
-        <v>0.03634829537077977</v>
+        <v>0.01393365225391238</v>
       </c>
       <c r="E20">
-        <v>-0.02577916787698145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02928218121960093</v>
+      </c>
+      <c r="F20">
+        <v>0.01381232079126742</v>
+      </c>
+      <c r="G20">
+        <v>0.1066748594606279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01608795321797336</v>
+        <v>-0.01315730541091984</v>
       </c>
       <c r="C21">
-        <v>0.01135309231812643</v>
+        <v>0.04091966175785411</v>
       </c>
       <c r="D21">
-        <v>0.04012276555772514</v>
+        <v>0.01857598620623172</v>
       </c>
       <c r="E21">
-        <v>-0.007633135721411035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04176712534874485</v>
+      </c>
+      <c r="F21">
+        <v>-0.0008531260446022375</v>
+      </c>
+      <c r="G21">
+        <v>0.1328563644449914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0007879238645107166</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001854072589555327</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0003097715598708073</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0009872131927311416</v>
+      </c>
+      <c r="F22">
+        <v>-0.0005943489377045309</v>
+      </c>
+      <c r="G22">
+        <v>0.002451934878509966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.00079225949160463</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.000185066960357035</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0003099004191050401</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0009929673174284594</v>
+      </c>
+      <c r="F23">
+        <v>-0.0005929146285279733</v>
+      </c>
+      <c r="G23">
+        <v>0.002464644980214257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003705096541687645</v>
+        <v>-0.0291194032660366</v>
       </c>
       <c r="C24">
-        <v>-0.006739996901797926</v>
+        <v>0.05214550361509699</v>
       </c>
       <c r="D24">
-        <v>0.0521431802578351</v>
+        <v>0.006917599827535266</v>
       </c>
       <c r="E24">
-        <v>0.006157181955763924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00513554977766519</v>
+      </c>
+      <c r="F24">
+        <v>-0.01133204187150306</v>
+      </c>
+      <c r="G24">
+        <v>0.08657789474386655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01320656299778337</v>
+        <v>-0.04366938209338554</v>
       </c>
       <c r="C25">
-        <v>0.00937320852069869</v>
+        <v>0.05962423042764294</v>
       </c>
       <c r="D25">
-        <v>0.0615715914725898</v>
+        <v>0.01098732161309914</v>
       </c>
       <c r="E25">
-        <v>0.009369671980433513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001673120388976701</v>
+      </c>
+      <c r="F25">
+        <v>-0.005683416445322702</v>
+      </c>
+      <c r="G25">
+        <v>0.09843377730528409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02319135033105028</v>
+        <v>-0.01402630837134194</v>
       </c>
       <c r="C26">
-        <v>0.002177688793594663</v>
+        <v>0.01193424132870378</v>
       </c>
       <c r="D26">
-        <v>0.004157372132752904</v>
+        <v>0.02403582036959144</v>
       </c>
       <c r="E26">
-        <v>0.003188588734629435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007414295327892966</v>
+      </c>
+      <c r="F26">
+        <v>0.009049839907102323</v>
+      </c>
+      <c r="G26">
+        <v>0.08069056667912335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06771465068064261</v>
+        <v>-0.1249435853987662</v>
       </c>
       <c r="C28">
-        <v>0.2430462600753741</v>
+        <v>-0.2376256614272762</v>
       </c>
       <c r="D28">
-        <v>-0.1208082214805059</v>
+        <v>-0.005773209109049966</v>
       </c>
       <c r="E28">
-        <v>-0.001403186716482563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006403477310754926</v>
+      </c>
+      <c r="F28">
+        <v>0.01612515142707397</v>
+      </c>
+      <c r="G28">
+        <v>0.05617183125907848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01090779609680845</v>
+        <v>-0.01001812052371568</v>
       </c>
       <c r="C29">
-        <v>0.01680318080163144</v>
+        <v>0.02327589010208184</v>
       </c>
       <c r="D29">
-        <v>0.02159923142433659</v>
+        <v>0.008849640764719844</v>
       </c>
       <c r="E29">
-        <v>-0.004250070098923734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001087085365878563</v>
+      </c>
+      <c r="F29">
+        <v>0.01903629531574316</v>
+      </c>
+      <c r="G29">
+        <v>0.09372520995966681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02315090072232003</v>
+        <v>-0.04191113304376419</v>
       </c>
       <c r="C30">
-        <v>-0.010701243549544</v>
+        <v>0.06968155878411982</v>
       </c>
       <c r="D30">
-        <v>0.09957480330173567</v>
+        <v>0.02853842135243487</v>
       </c>
       <c r="E30">
-        <v>-0.03555373219776198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05216995115550667</v>
+      </c>
+      <c r="F30">
+        <v>-0.04627588234171146</v>
+      </c>
+      <c r="G30">
+        <v>0.1100140676154397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01215711113250657</v>
+        <v>-0.05366520337626505</v>
       </c>
       <c r="C31">
-        <v>0.02912063735310022</v>
+        <v>0.03851410835007067</v>
       </c>
       <c r="D31">
-        <v>0.04000566115123647</v>
+        <v>0.003803546693564321</v>
       </c>
       <c r="E31">
-        <v>0.001144980672398154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001582778458892536</v>
+      </c>
+      <c r="F31">
+        <v>0.04173586417945129</v>
+      </c>
+      <c r="G31">
+        <v>0.0953118645714805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004441154530356376</v>
+        <v>-0.001805423208972645</v>
       </c>
       <c r="C32">
-        <v>0.01602726903092679</v>
+        <v>0.02578264669595817</v>
       </c>
       <c r="D32">
-        <v>0.01032909598854113</v>
+        <v>-0.003559639244446896</v>
       </c>
       <c r="E32">
-        <v>0.04103469923336831</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01887244469339889</v>
+      </c>
+      <c r="F32">
+        <v>-0.03811548462544933</v>
+      </c>
+      <c r="G32">
+        <v>0.09059810343703827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01468615338593943</v>
+        <v>-0.02854274640223905</v>
       </c>
       <c r="C33">
-        <v>0.01312383556350229</v>
+        <v>0.05110454250906358</v>
       </c>
       <c r="D33">
-        <v>0.04313762172070207</v>
+        <v>0.01561985830728872</v>
       </c>
       <c r="E33">
-        <v>-0.02358517606547434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03593533325182068</v>
+      </c>
+      <c r="F33">
+        <v>-0.01699221877770269</v>
+      </c>
+      <c r="G33">
+        <v>0.1506644059089172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001950680992383032</v>
+        <v>-0.04101054211592984</v>
       </c>
       <c r="C34">
-        <v>0.0154243344787712</v>
+        <v>0.06190525794438419</v>
       </c>
       <c r="D34">
-        <v>0.06049099874139974</v>
+        <v>-0.004902840139008455</v>
       </c>
       <c r="E34">
-        <v>0.01890966618868974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0006517340620251739</v>
+      </c>
+      <c r="F34">
+        <v>-0.01899920096238379</v>
+      </c>
+      <c r="G34">
+        <v>0.09422558211073472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0142525809679064</v>
+        <v>-0.01653917962685389</v>
       </c>
       <c r="C36">
-        <v>0.01416315044570294</v>
+        <v>0.009864315764098772</v>
       </c>
       <c r="D36">
-        <v>0.007920138962578718</v>
+        <v>0.01219286806924603</v>
       </c>
       <c r="E36">
-        <v>0.001971381992556541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004069822806922966</v>
+      </c>
+      <c r="F36">
+        <v>0.008260360294998827</v>
+      </c>
+      <c r="G36">
+        <v>0.08747985541879209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0002847470063953997</v>
+        <v>-0.03220919784515842</v>
       </c>
       <c r="C38">
-        <v>0.02766335599598996</v>
+        <v>0.03188384769980111</v>
       </c>
       <c r="D38">
-        <v>0.05264349980266771</v>
+        <v>-0.007520359511526619</v>
       </c>
       <c r="E38">
-        <v>0.007033341698814887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002920014810920305</v>
+      </c>
+      <c r="F38">
+        <v>0.02010966333369465</v>
+      </c>
+      <c r="G38">
+        <v>0.08304225640232546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.002104731837386792</v>
+        <v>-0.03692143549614343</v>
       </c>
       <c r="C39">
-        <v>-0.02858154939428781</v>
+        <v>0.08189594107082007</v>
       </c>
       <c r="D39">
-        <v>0.1027871619327873</v>
+        <v>0.01131660775818768</v>
       </c>
       <c r="E39">
-        <v>-0.0128982813099289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02059120978104509</v>
+      </c>
+      <c r="F39">
+        <v>-0.02305359493996858</v>
+      </c>
+      <c r="G39">
+        <v>0.08523318896177362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01287258583136665</v>
+        <v>-0.01522159208972511</v>
       </c>
       <c r="C40">
-        <v>0.008001416333170067</v>
+        <v>0.04311062823669386</v>
       </c>
       <c r="D40">
-        <v>0.04299251237775542</v>
+        <v>0.01470133117171045</v>
       </c>
       <c r="E40">
-        <v>0.01142731809337786</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01988474053137521</v>
+      </c>
+      <c r="F40">
+        <v>0.01691181045572287</v>
+      </c>
+      <c r="G40">
+        <v>0.122380681821103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008453222856405675</v>
+        <v>-0.02087125280205548</v>
       </c>
       <c r="C41">
-        <v>0.02137837001427485</v>
+        <v>0.002974769160725958</v>
       </c>
       <c r="D41">
-        <v>-0.009801888754059698</v>
+        <v>0.004217976024218088</v>
       </c>
       <c r="E41">
-        <v>0.007563582802559873</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002892376229577284</v>
+      </c>
+      <c r="F41">
+        <v>0.01552966086630277</v>
+      </c>
+      <c r="G41">
+        <v>0.07650196549834612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08756405064884684</v>
+        <v>-0.009344155077280128</v>
       </c>
       <c r="C42">
-        <v>-0.04140747666837151</v>
+        <v>0.0305894690464012</v>
       </c>
       <c r="D42">
-        <v>0.1446432691054973</v>
+        <v>0.09044097368863181</v>
       </c>
       <c r="E42">
-        <v>-0.3165036776843155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01873221766634137</v>
+      </c>
+      <c r="F42">
+        <v>0.03603373083915934</v>
+      </c>
+      <c r="G42">
+        <v>-0.09983240098703597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009883160689064247</v>
+        <v>-0.0349418563117047</v>
       </c>
       <c r="C43">
-        <v>0.02438180307110852</v>
+        <v>0.01894705825779765</v>
       </c>
       <c r="D43">
-        <v>-0.004246586300955452</v>
+        <v>0.005936812576040201</v>
       </c>
       <c r="E43">
-        <v>0.01071921757097408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01686197351147634</v>
+      </c>
+      <c r="F43">
+        <v>0.004874838019956381</v>
+      </c>
+      <c r="G43">
+        <v>0.1129819171782853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003138762416835898</v>
+        <v>-0.01333623741301961</v>
       </c>
       <c r="C44">
-        <v>0.0001936270067146178</v>
+        <v>0.06014470016462233</v>
       </c>
       <c r="D44">
-        <v>0.05696798771969621</v>
+        <v>0.006508247247253467</v>
       </c>
       <c r="E44">
-        <v>0.008841971278711938</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01766639343240146</v>
+      </c>
+      <c r="F44">
+        <v>0.01062791402964831</v>
+      </c>
+      <c r="G44">
+        <v>0.1016656657325015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01218079605221205</v>
+        <v>-0.008121086205170387</v>
       </c>
       <c r="C46">
-        <v>0.009482930158962148</v>
+        <v>0.01790655523960294</v>
       </c>
       <c r="D46">
-        <v>0.007889365821103618</v>
+        <v>0.01257671307639929</v>
       </c>
       <c r="E46">
-        <v>-0.01086173506245269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001244153502310402</v>
+      </c>
+      <c r="F46">
+        <v>0.01816269356696556</v>
+      </c>
+      <c r="G46">
+        <v>0.09758312733889069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007690141589432165</v>
+        <v>-0.07803912796984462</v>
       </c>
       <c r="C47">
-        <v>0.03826066865086138</v>
+        <v>0.06733699170160816</v>
       </c>
       <c r="D47">
-        <v>0.07747661981757217</v>
+        <v>-0.005090244311832003</v>
       </c>
       <c r="E47">
-        <v>0.01209305408688568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006447160307872651</v>
+      </c>
+      <c r="F47">
+        <v>0.05648321738621439</v>
+      </c>
+      <c r="G47">
+        <v>0.08308908765151493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005574058733458079</v>
+        <v>-0.01980452154144635</v>
       </c>
       <c r="C48">
-        <v>0.01804130130829571</v>
+        <v>0.01320789564772395</v>
       </c>
       <c r="D48">
-        <v>0.02048430626633702</v>
+        <v>0.001886919238959179</v>
       </c>
       <c r="E48">
-        <v>-0.003315444794346574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002222619193886294</v>
+      </c>
+      <c r="F48">
+        <v>0.02105336525660515</v>
+      </c>
+      <c r="G48">
+        <v>0.09042517895987583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01003085191805357</v>
+        <v>-0.07553913416726546</v>
       </c>
       <c r="C50">
-        <v>0.04040113546233375</v>
+        <v>0.07253131025644229</v>
       </c>
       <c r="D50">
-        <v>0.0744764675018155</v>
+        <v>-0.002438184673760421</v>
       </c>
       <c r="E50">
-        <v>0.02771813068096919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00635737567021957</v>
+      </c>
+      <c r="F50">
+        <v>0.05687282460286786</v>
+      </c>
+      <c r="G50">
+        <v>0.09495619345175216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008490191386591328</v>
+        <v>-0.01502153055284354</v>
       </c>
       <c r="C51">
-        <v>0.01044007879885768</v>
+        <v>0.03715879685852259</v>
       </c>
       <c r="D51">
-        <v>0.02433149292063911</v>
+        <v>0.01018190954065792</v>
       </c>
       <c r="E51">
-        <v>0.006414558024424256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01810383018058922</v>
+      </c>
+      <c r="F51">
+        <v>-0.02129537450368947</v>
+      </c>
+      <c r="G51">
+        <v>0.1209799427416495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01066972640468034</v>
+        <v>-0.08226151247444938</v>
       </c>
       <c r="C53">
-        <v>0.03871725620174447</v>
+        <v>0.08558682049400644</v>
       </c>
       <c r="D53">
-        <v>0.1308890187000025</v>
+        <v>-0.003532998018564335</v>
       </c>
       <c r="E53">
-        <v>0.02063140493587084</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02443570478501804</v>
+      </c>
+      <c r="F53">
+        <v>0.06758741620766433</v>
+      </c>
+      <c r="G53">
+        <v>0.08419270732670385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.006484547924168685</v>
+        <v>-0.03260716443657007</v>
       </c>
       <c r="C54">
-        <v>0.04047994935753108</v>
+        <v>0.01812530584480245</v>
       </c>
       <c r="D54">
-        <v>0.00236088234025925</v>
+        <v>-0.001733074947974969</v>
       </c>
       <c r="E54">
-        <v>-0.01470563528087315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01323815495346671</v>
+      </c>
+      <c r="F54">
+        <v>0.0066697878605783</v>
+      </c>
+      <c r="G54">
+        <v>0.1015758208867302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005912829902201803</v>
+        <v>-0.07225210141887049</v>
       </c>
       <c r="C55">
-        <v>0.02592652153671676</v>
+        <v>0.06908932429241314</v>
       </c>
       <c r="D55">
-        <v>0.107065097286606</v>
+        <v>-0.005043269807279751</v>
       </c>
       <c r="E55">
-        <v>0.007019843510354577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02161191536453285</v>
+      </c>
+      <c r="F55">
+        <v>0.06404853075916404</v>
+      </c>
+      <c r="G55">
+        <v>0.06032670426655528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01114414826139086</v>
+        <v>-0.1378287780987571</v>
       </c>
       <c r="C56">
-        <v>0.05845748914620474</v>
+        <v>0.1079173961998703</v>
       </c>
       <c r="D56">
-        <v>0.1623728748331088</v>
+        <v>-0.01257501740681254</v>
       </c>
       <c r="E56">
-        <v>0.02637033757474862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02992666562971618</v>
+      </c>
+      <c r="F56">
+        <v>0.08155017463432108</v>
+      </c>
+      <c r="G56">
+        <v>0.03399497484830524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02508060345754116</v>
+        <v>-0.006617235638618221</v>
       </c>
       <c r="C57">
-        <v>0.004237399910662293</v>
+        <v>0.008642548155967079</v>
       </c>
       <c r="D57">
-        <v>0.04309084262804196</v>
+        <v>0.02347898621750757</v>
       </c>
       <c r="E57">
-        <v>-0.03634505901723776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02548547465024771</v>
+      </c>
+      <c r="F57">
+        <v>-0.01146900846632163</v>
+      </c>
+      <c r="G57">
+        <v>0.03099202410494302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01323405367701843</v>
+        <v>-0.05353541397771476</v>
       </c>
       <c r="C58">
-        <v>0.03620216657057694</v>
+        <v>0.05195312035959642</v>
       </c>
       <c r="D58">
-        <v>0.1376336175924266</v>
+        <v>0.02333835223022269</v>
       </c>
       <c r="E58">
-        <v>-0.8057280267649585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9380827854336823</v>
+      </c>
+      <c r="F58">
+        <v>0.2135316750453831</v>
+      </c>
+      <c r="G58">
+        <v>-0.1634669405149796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.06906332893201128</v>
+        <v>-0.1598198949454598</v>
       </c>
       <c r="C59">
-        <v>0.2663472859710259</v>
+        <v>-0.2037148018892385</v>
       </c>
       <c r="D59">
-        <v>-0.104436796543823</v>
+        <v>-0.01124324916069025</v>
       </c>
       <c r="E59">
-        <v>0.0140579224586178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0183925745890286</v>
+      </c>
+      <c r="F59">
+        <v>5.925792021796536e-05</v>
+      </c>
+      <c r="G59">
+        <v>0.04456990026090599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06171322056778877</v>
+        <v>-0.2873087088404222</v>
       </c>
       <c r="C60">
-        <v>0.1605409971820081</v>
+        <v>0.1051367026354513</v>
       </c>
       <c r="D60">
-        <v>0.1384198271912438</v>
+        <v>0.01131394488405782</v>
       </c>
       <c r="E60">
-        <v>0.0600992344808679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01150669874983873</v>
+      </c>
+      <c r="F60">
+        <v>-0.3456093044842469</v>
+      </c>
+      <c r="G60">
+        <v>-0.1463051440882626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003095989768914025</v>
+        <v>-0.03847854950394222</v>
       </c>
       <c r="C61">
-        <v>-0.001666997372412241</v>
+        <v>0.06717105572004053</v>
       </c>
       <c r="D61">
-        <v>0.07619852762813251</v>
+        <v>0.005099700257025232</v>
       </c>
       <c r="E61">
-        <v>0.006328154964400662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01337976536827002</v>
+      </c>
+      <c r="F61">
+        <v>-0.01462766950050902</v>
+      </c>
+      <c r="G61">
+        <v>0.09087621755312723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008873672705175315</v>
+        <v>-0.01560354391028291</v>
       </c>
       <c r="C63">
-        <v>0.004742031391140384</v>
+        <v>0.0309624649209057</v>
       </c>
       <c r="D63">
-        <v>0.02928683169537459</v>
+        <v>0.008512169174415168</v>
       </c>
       <c r="E63">
-        <v>0.01307176533944749</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001690595778779874</v>
+      </c>
+      <c r="F63">
+        <v>0.01799962587091721</v>
+      </c>
+      <c r="G63">
+        <v>0.09353911976218575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01132605525333936</v>
+        <v>-0.04808398396630473</v>
       </c>
       <c r="C64">
-        <v>0.02288725311526712</v>
+        <v>0.04752125742668429</v>
       </c>
       <c r="D64">
-        <v>0.06355878977934912</v>
+        <v>0.005932109886777022</v>
       </c>
       <c r="E64">
-        <v>0.005246402527827762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.000745652479747947</v>
+      </c>
+      <c r="F64">
+        <v>-0.004742565710582106</v>
+      </c>
+      <c r="G64">
+        <v>0.08733899267415278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01783917719561404</v>
+        <v>-0.07524812267320449</v>
       </c>
       <c r="C65">
-        <v>-0.003134830413077517</v>
+        <v>0.05995059971432101</v>
       </c>
       <c r="D65">
-        <v>0.1102648490301974</v>
+        <v>0.01630999676999404</v>
       </c>
       <c r="E65">
-        <v>0.02483896719335545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03213770494487261</v>
+      </c>
+      <c r="F65">
+        <v>-0.03097498752271881</v>
+      </c>
+      <c r="G65">
+        <v>0.03373937522574205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002677647826048976</v>
+        <v>-0.0521125183231351</v>
       </c>
       <c r="C66">
-        <v>-0.0256454355941251</v>
+        <v>0.1096929301802213</v>
       </c>
       <c r="D66">
-        <v>0.1370207693098084</v>
+        <v>0.01126448498115219</v>
       </c>
       <c r="E66">
-        <v>-0.006586595576958692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02977330025241787</v>
+      </c>
+      <c r="F66">
+        <v>-0.03483121458814249</v>
+      </c>
+      <c r="G66">
+        <v>0.1022896077335591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008490197471469089</v>
+        <v>-0.05531442498525283</v>
       </c>
       <c r="C67">
-        <v>0.04788182165493604</v>
+        <v>0.03519467779248543</v>
       </c>
       <c r="D67">
-        <v>0.06922793012271154</v>
+        <v>-0.005888009223334893</v>
       </c>
       <c r="E67">
-        <v>0.01052734884992122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00351060411804297</v>
+      </c>
+      <c r="F67">
+        <v>0.01892797586883043</v>
+      </c>
+      <c r="G67">
+        <v>0.07503379400450702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08335048317676759</v>
+        <v>-0.1534949065561723</v>
       </c>
       <c r="C68">
-        <v>0.2470568414084792</v>
+        <v>-0.2694484112812461</v>
       </c>
       <c r="D68">
-        <v>-0.1535021733352211</v>
+        <v>0.006322757751985379</v>
       </c>
       <c r="E68">
-        <v>-0.02545104964687292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01280096156292584</v>
+      </c>
+      <c r="F68">
+        <v>0.03372825923745551</v>
+      </c>
+      <c r="G68">
+        <v>0.0336778885476611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003429649564940995</v>
+        <v>-0.0827730060307328</v>
       </c>
       <c r="C69">
-        <v>0.03471676430113978</v>
+        <v>0.07116473906260815</v>
       </c>
       <c r="D69">
-        <v>0.08141008872790843</v>
+        <v>-0.008944699415908983</v>
       </c>
       <c r="E69">
-        <v>0.02472306994774603</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0228155515159957</v>
+      </c>
+      <c r="F69">
+        <v>0.03785500111066785</v>
+      </c>
+      <c r="G69">
+        <v>0.09456845354573296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06389061853335638</v>
+        <v>-0.1396538250919313</v>
       </c>
       <c r="C71">
-        <v>0.2110534179099268</v>
+        <v>-0.2280382447654382</v>
       </c>
       <c r="D71">
-        <v>-0.101265203641645</v>
+        <v>-0.002362430858065689</v>
       </c>
       <c r="E71">
-        <v>-0.02641004455469909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03354283020121685</v>
+      </c>
+      <c r="F71">
+        <v>0.01941820279076027</v>
+      </c>
+      <c r="G71">
+        <v>0.07045104178387207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0009648063183502083</v>
+        <v>-0.08472728482515546</v>
       </c>
       <c r="C72">
-        <v>0.02627558526836929</v>
+        <v>0.07194375687297513</v>
       </c>
       <c r="D72">
-        <v>0.1073677154419586</v>
+        <v>-0.00844502365167648</v>
       </c>
       <c r="E72">
-        <v>0.03479884470157268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005561936163312738</v>
+      </c>
+      <c r="F72">
+        <v>-0.03905284225632231</v>
+      </c>
+      <c r="G72">
+        <v>0.08393028764090837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07584189002246149</v>
+        <v>-0.3767559281388441</v>
       </c>
       <c r="C73">
-        <v>0.1742992744983819</v>
+        <v>0.1149418957396331</v>
       </c>
       <c r="D73">
-        <v>0.2560571760959526</v>
+        <v>0.01931307304033412</v>
       </c>
       <c r="E73">
-        <v>0.03139945222837333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05577149643864327</v>
+      </c>
+      <c r="F73">
+        <v>-0.5803333980836948</v>
+      </c>
+      <c r="G73">
+        <v>-0.2621024993718055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009416962836737736</v>
+        <v>-0.1053885305951216</v>
       </c>
       <c r="C74">
-        <v>0.05328536418329929</v>
+        <v>0.1092734434592999</v>
       </c>
       <c r="D74">
-        <v>0.174142661594971</v>
+        <v>-0.009268372081616655</v>
       </c>
       <c r="E74">
-        <v>0.01647301499143636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.005805561145328598</v>
+      </c>
+      <c r="F74">
+        <v>0.06853789370687777</v>
+      </c>
+      <c r="G74">
+        <v>0.07709470253317086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.02492574652345828</v>
+        <v>-0.2488246619045783</v>
       </c>
       <c r="C75">
-        <v>0.1313251988257917</v>
+        <v>0.1506159921922447</v>
       </c>
       <c r="D75">
-        <v>0.3015118056172337</v>
+        <v>-0.03056405080703353</v>
       </c>
       <c r="E75">
-        <v>0.03200743041161202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05369067168089023</v>
+      </c>
+      <c r="F75">
+        <v>0.1776477444018581</v>
+      </c>
+      <c r="G75">
+        <v>-0.03358271385972958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.007592692180046089</v>
+        <v>-0.120187358089947</v>
       </c>
       <c r="C76">
-        <v>0.07338287385637673</v>
+        <v>0.109849325016566</v>
       </c>
       <c r="D76">
-        <v>0.2210577056864092</v>
+        <v>-0.01855575848508655</v>
       </c>
       <c r="E76">
-        <v>0.05266006476528813</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0284018975178393</v>
+      </c>
+      <c r="F76">
+        <v>0.1113126677837629</v>
+      </c>
+      <c r="G76">
+        <v>0.05623522550221236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01539021310778578</v>
+        <v>-0.06751557602882319</v>
       </c>
       <c r="C77">
-        <v>0.01294782485398096</v>
+        <v>0.06025612627650978</v>
       </c>
       <c r="D77">
-        <v>0.06617250639821597</v>
+        <v>0.01124222938361503</v>
       </c>
       <c r="E77">
-        <v>-0.01560095419183988</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04006808587104073</v>
+      </c>
+      <c r="F77">
+        <v>-0.014912289618444</v>
+      </c>
+      <c r="G77">
+        <v>0.05727086979359405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004966790540814722</v>
+        <v>-0.04217047492898076</v>
       </c>
       <c r="C78">
-        <v>0.0040720774678684</v>
+        <v>0.05128386940401149</v>
       </c>
       <c r="D78">
-        <v>0.0574331503475469</v>
+        <v>0.005248744746873683</v>
       </c>
       <c r="E78">
-        <v>-0.009323511597473678</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02125969076434759</v>
+      </c>
+      <c r="F78">
+        <v>-0.03628428761357456</v>
+      </c>
+      <c r="G78">
+        <v>0.0887296826660217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0138078135113848</v>
+        <v>-0.04438324339127733</v>
       </c>
       <c r="C80">
-        <v>0.02094094702067443</v>
+        <v>0.0720680403960554</v>
       </c>
       <c r="D80">
-        <v>0.1548936854041472</v>
+        <v>0.0100932811999656</v>
       </c>
       <c r="E80">
-        <v>0.4254354447183338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03801572296548696</v>
+      </c>
+      <c r="F80">
+        <v>-0.008256368866420422</v>
+      </c>
+      <c r="G80">
+        <v>0.2731372619982032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0161810470674822</v>
+        <v>-0.1385475485758175</v>
       </c>
       <c r="C81">
-        <v>0.08039694355239523</v>
+        <v>0.09564531236606766</v>
       </c>
       <c r="D81">
-        <v>0.1799214380356426</v>
+        <v>-0.01490477414974802</v>
       </c>
       <c r="E81">
-        <v>0.03920657522329536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03220241852176123</v>
+      </c>
+      <c r="F81">
+        <v>0.1311072305933224</v>
+      </c>
+      <c r="G81">
+        <v>0.02328100342852651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1291546511887504</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07477578951478876</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00834765792265009</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08924763271739826</v>
+      </c>
+      <c r="F82">
+        <v>0.04650091922691774</v>
+      </c>
+      <c r="G82">
+        <v>0.05385141390114258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008884994562406684</v>
+        <v>-0.03694001341295244</v>
       </c>
       <c r="C83">
-        <v>0.01682408278416821</v>
+        <v>0.03021397395381812</v>
       </c>
       <c r="D83">
-        <v>0.04048860144822398</v>
+        <v>0.005569426423671344</v>
       </c>
       <c r="E83">
-        <v>-0.01712653917367095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02735282367092015</v>
+      </c>
+      <c r="F83">
+        <v>-0.03102570118843715</v>
+      </c>
+      <c r="G83">
+        <v>0.06082936121017841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02787425343631176</v>
+        <v>-0.2136216645118036</v>
       </c>
       <c r="C85">
-        <v>0.09465844927143896</v>
+        <v>0.1437461505424796</v>
       </c>
       <c r="D85">
-        <v>0.2656399195317937</v>
+        <v>-0.01777949895606859</v>
       </c>
       <c r="E85">
-        <v>0.04133009087685626</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09362388348346071</v>
+      </c>
+      <c r="F85">
+        <v>0.1337020739540127</v>
+      </c>
+      <c r="G85">
+        <v>-0.09477594855696213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01084572075626409</v>
+        <v>-0.01393683803899528</v>
       </c>
       <c r="C86">
-        <v>0.01848156320064366</v>
+        <v>0.03039621328072706</v>
       </c>
       <c r="D86">
-        <v>0.06538329216005077</v>
+        <v>0.01231635170807462</v>
       </c>
       <c r="E86">
-        <v>-0.02893258932309159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04841923957772457</v>
+      </c>
+      <c r="F86">
+        <v>-0.03130068679553139</v>
+      </c>
+      <c r="G86">
+        <v>0.1866090194677584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006979231574211865</v>
+        <v>-0.02274882715602253</v>
       </c>
       <c r="C87">
-        <v>-0.0063700834505177</v>
+        <v>0.02415153730745466</v>
       </c>
       <c r="D87">
-        <v>0.05387381354479132</v>
+        <v>0.01170025293187291</v>
       </c>
       <c r="E87">
-        <v>-0.02858339585055561</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0861084946568734</v>
+      </c>
+      <c r="F87">
+        <v>-0.01551509167240995</v>
+      </c>
+      <c r="G87">
+        <v>0.1174126515618845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03177374572229979</v>
+        <v>-0.09348295707607376</v>
       </c>
       <c r="C88">
-        <v>0.02879077373255721</v>
+        <v>0.06833559948093602</v>
       </c>
       <c r="D88">
-        <v>0.06230912423877123</v>
+        <v>0.02240533774264483</v>
       </c>
       <c r="E88">
-        <v>0.003922148004216311</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007099247024603812</v>
+      </c>
+      <c r="F88">
+        <v>0.01870996457147775</v>
+      </c>
+      <c r="G88">
+        <v>0.08415738168504282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.122106111984039</v>
+        <v>-0.2318829884485775</v>
       </c>
       <c r="C89">
-        <v>0.3955839714698131</v>
+        <v>-0.3675787479081052</v>
       </c>
       <c r="D89">
-        <v>-0.1826236761327348</v>
+        <v>0.0004273789082204209</v>
       </c>
       <c r="E89">
-        <v>0.02739334260526593</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01356806561976734</v>
+      </c>
+      <c r="F89">
+        <v>0.02708621514286982</v>
+      </c>
+      <c r="G89">
+        <v>0.06616177858059885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09544521997278121</v>
+        <v>-0.2070710620608794</v>
       </c>
       <c r="C90">
-        <v>0.3155199155540672</v>
+        <v>-0.3198119573896231</v>
       </c>
       <c r="D90">
-        <v>-0.1687060203614948</v>
+        <v>-0.004277145952726447</v>
       </c>
       <c r="E90">
-        <v>-0.007936126134665315</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003245446718322634</v>
+      </c>
+      <c r="F90">
+        <v>0.05563111130027036</v>
+      </c>
+      <c r="G90">
+        <v>0.03577349209896103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0193988728078898</v>
+        <v>-0.1869093423385515</v>
       </c>
       <c r="C91">
-        <v>0.1135499246292695</v>
+        <v>0.1383746532438877</v>
       </c>
       <c r="D91">
-        <v>0.2241474067126756</v>
+        <v>-0.02206139653464257</v>
       </c>
       <c r="E91">
-        <v>0.04108445417188876</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05740561624804402</v>
+      </c>
+      <c r="F91">
+        <v>0.1452336314003956</v>
+      </c>
+      <c r="G91">
+        <v>0.02260369426675046</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06192053057464749</v>
+        <v>-0.1990463128263651</v>
       </c>
       <c r="C92">
-        <v>0.3147176556772253</v>
+        <v>-0.2564844627391754</v>
       </c>
       <c r="D92">
-        <v>-0.06616403415250346</v>
+        <v>-0.03751058618670865</v>
       </c>
       <c r="E92">
-        <v>-0.05927367535436613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03945957250940953</v>
+      </c>
+      <c r="F92">
+        <v>0.05768958095640083</v>
+      </c>
+      <c r="G92">
+        <v>0.1311986301768689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.09606547067908325</v>
+        <v>-0.2318137658416357</v>
       </c>
       <c r="C93">
-        <v>0.3379791063690247</v>
+        <v>-0.315460717728139</v>
       </c>
       <c r="D93">
-        <v>-0.1372538252406121</v>
+        <v>-0.010971872110595</v>
       </c>
       <c r="E93">
-        <v>-0.0246613954006002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009285397526301739</v>
+      </c>
+      <c r="F93">
+        <v>0.04115325199039588</v>
+      </c>
+      <c r="G93">
+        <v>0.05046341375316658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05546811112630387</v>
+        <v>-0.3155878121524143</v>
       </c>
       <c r="C94">
-        <v>0.1639683356646537</v>
+        <v>0.1740895097658304</v>
       </c>
       <c r="D94">
-        <v>0.2715896516686483</v>
+        <v>-0.01674027509203619</v>
       </c>
       <c r="E94">
-        <v>0.08833246456112021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.168226751087922</v>
+      </c>
+      <c r="F94">
+        <v>0.4825700801657061</v>
+      </c>
+      <c r="G94">
+        <v>-0.4163698145383746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001427123199013387</v>
+        <v>-0.101951688620488</v>
       </c>
       <c r="C95">
-        <v>0.02883883436773225</v>
+        <v>0.08652045912670066</v>
       </c>
       <c r="D95">
-        <v>0.120803559228342</v>
+        <v>-0.01130690874849743</v>
       </c>
       <c r="E95">
-        <v>-0.1360693343150943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06841642172974412</v>
+      </c>
+      <c r="F95">
+        <v>-0.204097208390188</v>
+      </c>
+      <c r="G95">
+        <v>-0.08820364071301472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.03010738007181307</v>
+        <v>-0.1980148928340262</v>
       </c>
       <c r="C98">
-        <v>0.147716474989749</v>
+        <v>0.04485485973382662</v>
       </c>
       <c r="D98">
-        <v>0.1508017080567389</v>
+        <v>-0.01397618165452216</v>
       </c>
       <c r="E98">
-        <v>-0.03637538573311169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06176015566705136</v>
+      </c>
+      <c r="F98">
+        <v>-0.2401196626557266</v>
+      </c>
+      <c r="G98">
+        <v>-0.003430386454677586</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01070153769711951</v>
+        <v>-0.009798993510877846</v>
       </c>
       <c r="C101">
-        <v>0.01663651768892051</v>
+        <v>0.0232996857557192</v>
       </c>
       <c r="D101">
-        <v>0.02151371073278631</v>
+        <v>0.008696474785075748</v>
       </c>
       <c r="E101">
-        <v>-0.003998460422377002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0009763953879075509</v>
+      </c>
+      <c r="F101">
+        <v>0.01998040838961404</v>
+      </c>
+      <c r="G101">
+        <v>0.09275419406995417</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02136543342361568</v>
+        <v>-0.1174106945283105</v>
       </c>
       <c r="C102">
-        <v>0.04692371927320896</v>
+        <v>0.0829327814012525</v>
       </c>
       <c r="D102">
-        <v>0.1292040295120651</v>
+        <v>0.0007482113288532883</v>
       </c>
       <c r="E102">
-        <v>0.02040918556046895</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03359481038308298</v>
+      </c>
+      <c r="F102">
+        <v>0.04169733546324173</v>
+      </c>
+      <c r="G102">
+        <v>0.008658498779574662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9525478907128057</v>
+        <v>-0.0210419303389365</v>
       </c>
       <c r="C104">
-        <v>-0.2718418715079264</v>
+        <v>-0.02901454897008014</v>
       </c>
       <c r="D104">
-        <v>-0.03253532726871647</v>
+        <v>0.9879278048220853</v>
       </c>
       <c r="E104">
-        <v>0.0291925567877413</v>
+        <v>-0.0453950353529606</v>
+      </c>
+      <c r="F104">
+        <v>0.03464086271967843</v>
+      </c>
+      <c r="G104">
+        <v>-0.03412481714980865</v>
       </c>
     </row>
   </sheetData>
